--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paxop\Documents\UiPath\Generacion de correos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159DCEE-089A-4828-A053-01FCF1289A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,103 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1shJ6qV-pjCpCZVN3UyIhxG2wc43VTxtk</t>
+  </si>
+  <si>
+    <t>PathFolderDescargas</t>
+  </si>
+  <si>
+    <t>URL_GDriveFolder</t>
+  </si>
+  <si>
+    <t>GoogleSheet_NombreHoja</t>
+  </si>
+  <si>
+    <t>GoogleSheet_NombreArchivo</t>
+  </si>
+  <si>
+    <t>Insumos</t>
+  </si>
+  <si>
+    <t>DelayLow</t>
+  </si>
+  <si>
+    <t>Hoja de recursos</t>
+  </si>
+  <si>
+    <t>Datos para el envio del email con archivos generados</t>
+  </si>
+  <si>
+    <t>EmailsResultados</t>
+  </si>
+  <si>
+    <t>TextoEmail</t>
+  </si>
+  <si>
+    <t>AsuntoEmail</t>
+  </si>
+  <si>
+    <t>PruebaQA Generacion de correos</t>
+  </si>
+  <si>
+    <t>C:\Users\paxop\Downloads\</t>
+  </si>
+  <si>
+    <t>GoogleSheet_NombreHojaProcesados</t>
+  </si>
+  <si>
+    <t>Procesados</t>
+  </si>
+  <si>
+    <t>GoogleSheet_NombreHojaNoProcesados</t>
+  </si>
+  <si>
+    <t>NoProcesados</t>
+  </si>
+  <si>
+    <t>irving.burgos@ipiam.edu.mx; hector.serrano@ipiam.edu.mx; francisco.aquino@ipiam.edu.mx; gerson.gaona@ipiam.edu.mx</t>
+  </si>
+  <si>
+    <t>Hola, le envio los resultados obtenidos y adjunto el archivo</t>
+  </si>
+  <si>
+    <t>Path de la carpeta de descargas local.</t>
+  </si>
+  <si>
+    <t>Estos correos deben estar separados por ; para que el bot sepa donde separa uno de otro.</t>
+  </si>
+  <si>
+    <t>Cuerpo del mensaje que se enviará a los correos de "EmailsResultados"</t>
+  </si>
+  <si>
+    <t>Asunto del correo electrónico que se enviará a los correos de "EmailsResultados"</t>
+  </si>
+  <si>
+    <t>Delay corto de 5 segundos</t>
+  </si>
+  <si>
+    <t>Nombre del archivo a descargar</t>
+  </si>
+  <si>
+    <t>URL de donde se descargará el archivo</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja que contiene los insumos</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja que contiene los datos procesados</t>
+  </si>
+  <si>
+    <t>Nombre de la hoja que contiene los datos no procesados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,13 +280,33 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,10 +318,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,8 +332,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -239,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,14 +657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -619,29 +739,77 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1609,9 +1777,15 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="18670124@itiguala.edu.mx" xr:uid="{B4C98E67-40D1-4C77-8103-5EC0362D61F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1619,14 +1793,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -1802,13 +1976,73 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,7 +3020,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.109375" customWidth="1"/>
